--- a/data/trans_camb/P25A_2_R2-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P25A_2_R2-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,4</t>
+          <t>-0,53</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-1,33</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,65</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,95</t>
+          <t>0,1</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,1</t>
+          <t>1,35</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>8,51</t>
+          <t>0,99</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>1,24</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,1</t>
+          <t>1,37</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>2,1</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,27</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-0,57</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>1,07</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,76</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>1,73</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 1,72</t>
+          <t>-3,55; 1,26</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 0,16</t>
+          <t>-5,3; -0,04</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,05; 13,2</t>
+          <t>-2,3; 3,08</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 2,3</t>
+          <t>-2,09; 2,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 1,41</t>
+          <t>-0,41; 3,01</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,46; 14,59</t>
+          <t>-0,55; 2,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 1,6</t>
+          <t>-1,22; 1,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,17; 0,37</t>
+          <t>-0,48; 3,62</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,83; 11,66</t>
+          <t>-1,0; 3,26</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>0,29; 4,02</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-1,24; 1,45</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-2,18; 0,47</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-0,59; 2,72</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>-0,99; 2,14</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>0,55; 2,93</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-16,15%</t>
+          <t>-20,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-53,36%</t>
+          <t>-55,04%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>307,62%</t>
+          <t>35,05%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>59,53%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>61,95%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>532,83%</t>
+          <t>59,85%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>15,13%</t>
+          <t>11,06%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-28,69%</t>
+          <t>75,25%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>400,25%</t>
+          <t>47,42%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>96,52%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>12,75%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-27,57%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>51,63%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>24,03%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>79,47%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-73,49; 141,56</t>
+          <t>-76,6; 87,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-88,96; 21,59</t>
+          <t>-87,97; 5,21</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>15,8; 873,13</t>
+          <t>-59,05; 187,63</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-27,88; 246,19</t>
+          <t>-44,96; 97,44</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-57,88; 169,54</t>
+          <t>-14,98; 210,96</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>185,49; 1412,74</t>
+          <t>-25,01; 240,82</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-50,08; 108,18</t>
+          <t>-55,41; 191,93</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-68,76; 29,43</t>
+          <t>-27,22; 352,54</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>147,49; 723,58</t>
+          <t>-27,43; 170,3</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>3,7; 247,62</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-42,4; 102,63</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-66,58; 38,78</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-23,71; 192,41</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>-22,72; 96,12</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>19,75; 178,11</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,71</t>
+          <t>-0,79</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,75</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,21</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,65</t>
+          <t>1,7</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,91</t>
+          <t>2,41</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,5</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>1,28</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>3,23</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>14,82</t>
+          <t>-0,38</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,17</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,23</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>2,37</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,66</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>1,36</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-2,02; 0,31</t>
+          <t>-2,11; 0,29</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,04; 0,07</t>
+          <t>-2,04; 0,12</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,4; 21,03</t>
+          <t>-0,22; 3,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 2,23</t>
+          <t>-1,09; 5,47</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,93; 3,23</t>
+          <t>-0,54; 5,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,78; 35,84</t>
+          <t>-1,24; 2,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,98; 1,06</t>
+          <t>-0,6; 5,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 1,35</t>
+          <t>0,99; 6,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>7,85; 24,13</t>
+          <t>-3,79; 3,22</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-4,06; 3,89</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-1,24; 0,76</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-0,98; 2,43</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>0,77; 4,02</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-1,59; 3,36</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-1,12; 3,97</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-57,73%</t>
+          <t>-60,22%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-61,72%</t>
+          <t>-61,31%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>835,14%</t>
+          <t>115,47%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>43,98%</t>
+          <t>60,23%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>61,91%</t>
+          <t>113,93%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1329,41%</t>
+          <t>28,36%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-2,53%</t>
+          <t>80,13%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5,49%</t>
+          <t>202,47%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>1101,61%</t>
+          <t>-7,94%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>4,47%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-11,81%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>16,17%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>162,92%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>17,34%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>43,46%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 121,8</t>
+          <t>-100,0; 113,87</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-93,07; 31,15</t>
+          <t>-91,48; 58,75</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>142,24; 2794,94</t>
+          <t>-23,12; 518,18</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-51,4; 293,06</t>
+          <t>-35,84; 266,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-47,24; 444,33</t>
+          <t>-28,12; 644,08</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>308,37; 4152,56</t>
+          <t>-50,56; 292,77</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-52,89; 137,08</t>
+          <t>-42,13; 729,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-53,82; 166,87</t>
+          <t>15,78; 746,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>469,01; 2411,56</t>
+          <t>-60,75; 93,37</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-65,33; 169,13</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-61,86; 92,29</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-53,23; 240,79</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>31,43; 416,25</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>-35,91; 120,77</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>-26,21; 201,55</t>
         </is>
       </c>
     </row>
@@ -1069,40 +1357,70 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>0,04</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>-2,06</t>
-        </is>
-      </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-1,05</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
+          <t>-1,44</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>-0,69</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-2,13</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>-0,16</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>-0,46</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>-0,25</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>-1,02</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>—</t>
         </is>
@@ -1117,45 +1435,75 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 5,63</t>
+          <t>-2,58; 6,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 3,73</t>
+          <t>-3,38; 4,6</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
+          <t>-4,1; 4,05</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-7,21; 1,94</t>
-        </is>
-      </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-6,07; 3,63</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
+          <t>-6,28; 2,35</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-5,79; 3,37</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-6,99; 1,3</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-3,43; 2,38</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-3,75; 2,19</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-2,89; 3,32</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-3,33; 3,1</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-4,14; 1,75</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1170,45 +1518,75 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>67,91%</t>
+          <t>59,42%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4,45%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>1,52%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>-47,27%</t>
-        </is>
-      </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-24,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
+          <t>-35,51%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>-17,03%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-52,31%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-4,79%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>-13,66%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>4,16%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>-7,15%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>-29,84%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1223,45 +1601,75 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-67,24; 719,43</t>
+          <t>-71,21; 584,94</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
+          <t>-84,67; 731,05</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>-90,6; 472,77</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-93,29; 272,33</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-89,69; 401,28</t>
-        </is>
-      </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
+          <t>-89,8; 200,66</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-66,53; 132,37</t>
-        </is>
-      </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-73,71; 127,26</t>
+          <t>-100,0; 182,58</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-59,99; 198,43</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-70,12; 191,86</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-79,21; 121,94</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>-0,37</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,92</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,43</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>0,66</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,28</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,47</t>
+          <t>0,51</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,12</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>1,62</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>9,46</t>
+          <t>0,78</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1,69</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,08</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-0,22</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,33</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>0,72</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>1,65</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,71; 0,89</t>
+          <t>-1,86; 0,73</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,48; -0,0</t>
+          <t>-2,44; 0,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>4,78; 13,08</t>
+          <t>-0,67; 2,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 1,57</t>
+          <t>-1,03; 2,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 1,41</t>
+          <t>0,15; 3,04</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,44; 16,39</t>
+          <t>-0,71; 1,5</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,86; 0,93</t>
+          <t>-0,69; 1,97</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 0,55</t>
+          <t>0,16; 3,31</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,35; 12,49</t>
+          <t>-1,17; 2,51</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-0,05; 3,42</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-0,97; 0,84</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-1,18; 0,73</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,27; 2,32</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-0,43; 1,89</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>0,56; 2,72</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-13,8%</t>
+          <t>-17,55%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-46,68%</t>
+          <t>-46,43%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>426,04%</t>
+          <t>49,5%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>26,51%</t>
+          <t>21,17%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>74,22%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>562,9%</t>
+          <t>26,67%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>26,37%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-16,12%</t>
+          <t>85,12%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>493,25%</t>
+          <t>22,09%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>64,51%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>4,06%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>-10,89%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>66,87%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>21,52%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>68,92%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,97 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-59,84; 65,33</t>
+          <t>-60,75; 61,18</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-78,19; 5,33</t>
+          <t>-76,29; 10,56</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>147,91; 857,96</t>
+          <t>-26,89; 156,76</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-25,75; 120,11</t>
+          <t>-26,16; 97,26</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-36,3; 103,59</t>
+          <t>-0,85; 180,71</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>268,61; 1088,76</t>
+          <t>-28,6; 112,65</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-34,31; 64,72</t>
+          <t>-31,02; 162,39</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-46,02; 36,53</t>
+          <t>4,33; 247,57</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>279,01; 803,7</t>
+          <t>-25,32; 89,32</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>-2,45; 187,95</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-36,42; 56,06</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-45,97; 45,73</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>10,4; 149,67</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-11,11; 70,41</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>19,41; 142,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
